--- a/biology/Zoologie/Agrion_élégant/Agrion_élégant.xlsx
+++ b/biology/Zoologie/Agrion_élégant/Agrion_élégant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agrion_%C3%A9l%C3%A9gant</t>
+          <t>Agrion_élégant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischnura elegans, en français agrion élégant, est une espèce d'insectes odonates de la famille des coenagrionidés, du sous-ordre des zygoptères (« demoiselles »).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agrion_%C3%A9l%C3%A9gant</t>
+          <t>Agrion_élégant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ischnura elegans un insecte avec un corps divisé en trois parties distinctes : une tête, un thorax et un abdomen. Ces trois parties, ainsi que les yeux, sont de couleur noire et/ou bleue[1]. Le huitième segment de l'abdomen est de couleur bleue[1]. Elle mesure environ 3 cm de long dont 22 à 29 mm pour l'abdomen[2], et a une envergure d'environ 4 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ischnura elegans un insecte avec un corps divisé en trois parties distinctes : une tête, un thorax et un abdomen. Ces trois parties, ainsi que les yeux, sont de couleur noire et/ou bleue. Le huitième segment de l'abdomen est de couleur bleue. Elle mesure environ 3 cm de long dont 22 à 29 mm pour l'abdomen, et a une envergure d'environ 4 cm.
 			Agrion élégant (Ischnura elegans) dans un marais tourbeux alcalin
 			Femelle immature.
 			Couple.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agrion_%C3%A9l%C3%A9gant</t>
+          <t>Agrion_élégant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans des habitats continentaux, à la fois terrestres et proches d'eaux douces[2]. Elle est considérée comme une espèce euryèce ou oligoèce non-sélective[2] au sein des habitats suivants. Elle occupe divers habitats tels que les lagunes littorales saumâtres, les cultures inondées, les plans d'eau artificiels, les cours d'eau permanents, les eaux dormantes de surface, et les complexes d'habitats[3]. Elle est également présente dans des eaux de surface continentales, des zones bâties, des sites industriels, ainsi que dans des habitats agricoles, horticoles et domestiques récemment cultivés[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans des habitats continentaux, à la fois terrestres et proches d'eaux douces. Elle est considérée comme une espèce euryèce ou oligoèce non-sélective au sein des habitats suivants. Elle occupe divers habitats tels que les lagunes littorales saumâtres, les cultures inondées, les plans d'eau artificiels, les cours d'eau permanents, les eaux dormantes de surface, et les complexes d'habitats. Elle est également présente dans des eaux de surface continentales, des zones bâties, des sites industriels, ainsi que dans des habitats agricoles, horticoles et domestiques récemment cultivés.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agrion_%C3%A9l%C3%A9gant</t>
+          <t>Agrion_élégant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se rencontre dans les pays suivants[2] : Afghanistan, Albanie, Allemagne, Arménie, Autriche, Azerbaïdjan, Guernesey, Belgique, Biélorussie, Bosnie-Herzégovine, Bulgarie, Chine, Chypre, Corée du Nord, Corée du Sud, Croatie, Danemark, Espagne, Estonie, Finlande, France, Grèce, Géorgie, Hongrie, Inde, Indonésie, Irak, Iran, Irlande, Israël, Italie, Japon, Jersey, Jordanie, Kazakhstan, Kirghizistan, Lettonie, Liban, Liechtenstein, Lituanie, Luxembourg, Macédoine du Nord, Malaisie, Moldavie, Mongolie, Monténégro, Norvège, Népal, Ouzbékistan, Pakistan, Palestine, Pays-Bas, Pologne, Roumanie, Royaume-Uni, Russie, Serbie, Slovaquie, Slovénie, Sri Lanka, Suisse, Suède, Syrie, Tadjikistan, Tchéquie, Turkménistan, Turquie, Ukraine, Île de Man.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se rencontre dans les pays suivants : Afghanistan, Albanie, Allemagne, Arménie, Autriche, Azerbaïdjan, Guernesey, Belgique, Biélorussie, Bosnie-Herzégovine, Bulgarie, Chine, Chypre, Corée du Nord, Corée du Sud, Croatie, Danemark, Espagne, Estonie, Finlande, France, Grèce, Géorgie, Hongrie, Inde, Indonésie, Irak, Iran, Irlande, Israël, Italie, Japon, Jersey, Jordanie, Kazakhstan, Kirghizistan, Lettonie, Liban, Liechtenstein, Lituanie, Luxembourg, Macédoine du Nord, Malaisie, Moldavie, Mongolie, Monténégro, Norvège, Népal, Ouzbékistan, Pakistan, Palestine, Pays-Bas, Pologne, Roumanie, Royaume-Uni, Russie, Serbie, Slovaquie, Slovénie, Sri Lanka, Suisse, Suède, Syrie, Tadjikistan, Tchéquie, Turkménistan, Turquie, Ukraine, Île de Man.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Agrion_%C3%A9l%C3%A9gant</t>
+          <t>Agrion_élégant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,12 +628,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Ischnura elegans (Vander Linden, 1820)[4].
-L'espèce a été initialement classée dans le genre Agrion sous le protonyme Agrion elegans Vander Linden, 1820[4].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : agrion élégant[4],[5],[2],[1].
-Ischnura elegans a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Ischnura elegans (Vander Linden, 1820).
+L'espèce a été initialement classée dans le genre Agrion sous le protonyme Agrion elegans Vander Linden, 1820.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : agrion élégant.
+Ischnura elegans a pour synonymes :
 Agrion aglae Fonscolombe, 1838
 Agrion elegans Vander Linden, 1820
 Agrion excelsa Rostok, 1885
